--- a/RepModel.xlsx
+++ b/RepModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zotikov\Балтика Самара\Исходник Приложение Отчёта\BaltikaSamaraCustomReportEPPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67822057-9EF7-4385-92E3-D56E2D0F6DA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDEB62-A2D2-4DC1-8FAB-D9FE1D310786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{D7D6A405-6A15-4CDC-A50F-3199ED2B6F9A}"/>
   </bookViews>
@@ -692,117 +692,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,22 +831,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>302559</xdr:rowOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200546</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>307196</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>493959</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C0D7BD-0845-4E6C-A16A-DC8C9A85D2C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6234D8C1-AAD2-4BCC-9AF5-C04F9E972B79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -868,58 +868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="1736912"/>
-          <a:ext cx="2990811" cy="5383460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>302559</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>583633</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>307196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61340714-03AD-4A8E-9E55-61C1A4922E01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3160058" y="1736912"/>
-          <a:ext cx="3004104" cy="5383460"/>
+          <a:off x="134471" y="1759322"/>
+          <a:ext cx="5940017" cy="5370765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,7 +1184,7 @@
   <dimension ref="B1:U69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1253,63 +1203,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="35"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="6" spans="2:21" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1651,25 +1601,25 @@
       <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
@@ -1835,25 +1785,25 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27" t="s">
@@ -1939,25 +1889,25 @@
       <c r="Q38" s="9"/>
     </row>
     <row r="39" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27" t="s">
@@ -2060,23 +2010,23 @@
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
     </row>
     <row r="46" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
@@ -2192,23 +2142,23 @@
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
     </row>
     <row r="53" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
@@ -2518,6 +2468,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B45:R45"/>
+    <mergeCell ref="B52:R52"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="E4:G4"/>
@@ -2525,11 +2480,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B45:R45"/>
-    <mergeCell ref="B52:R52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2566,72 +2516,72 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="39" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="39" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="39" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="39" t="s">
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="39" t="s">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="39" t="s">
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="40"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="39" t="s">
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="42"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="2:27" s="19" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
@@ -2701,15 +2651,15 @@
       <c r="Z5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -2736,10 +2686,10 @@
       <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="17"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -2766,10 +2716,10 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="17"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -2796,10 +2746,10 @@
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="18"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -2832,71 +2782,71 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="39" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="39" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="39" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="39" t="s">
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="39" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="39" t="s">
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="40"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="39" t="s">
+      <c r="W13" s="44"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="42"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="2:27" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="25" t="s">
         <v>18</v>
       </c>
@@ -2966,15 +2916,15 @@
       <c r="Z14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AA14" s="66" t="s">
+      <c r="AA14" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -3001,10 +2951,10 @@
       <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="17"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -3031,10 +2981,10 @@
       <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="17"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -3061,10 +3011,10 @@
       <c r="AA17" s="21"/>
     </row>
     <row r="18" spans="2:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="18"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3091,56 +3041,56 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="21" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
     </row>
     <row r="23" spans="2:27" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3155,8 +3105,8 @@
       <c r="O24" s="23"/>
     </row>
     <row r="25" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -3171,8 +3121,8 @@
       <c r="O25" s="23"/>
     </row>
     <row r="26" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3187,8 +3137,8 @@
       <c r="O26" s="23"/>
     </row>
     <row r="27" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -3203,124 +3153,124 @@
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="29" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
     </row>
     <row r="30" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
     </row>
     <row r="31" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
     </row>
     <row r="32" spans="2:27" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
     </row>
     <row r="33" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -3336,16 +3286,16 @@
       <c r="P33" s="23"/>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
     </row>
     <row r="34" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -3361,16 +3311,16 @@
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
     </row>
     <row r="35" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
@@ -3386,16 +3336,16 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
     </row>
     <row r="36" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
@@ -3411,141 +3361,141 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
     </row>
     <row r="37" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
     </row>
     <row r="38" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
     </row>
     <row r="39" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
     </row>
     <row r="40" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
     </row>
     <row r="41" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
     </row>
     <row r="42" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -3569,8 +3519,8 @@
       <c r="X42" s="23"/>
     </row>
     <row r="43" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -3594,8 +3544,8 @@
       <c r="X43" s="23"/>
     </row>
     <row r="44" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -3619,8 +3569,8 @@
       <c r="X44" s="23"/>
     </row>
     <row r="45" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -3644,41 +3594,74 @@
       <c r="X45" s="23"/>
     </row>
     <row r="46" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="B39:O39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="D13:F13"/>
@@ -3695,48 +3678,15 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3772,72 +3722,72 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="39" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="39" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="39" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="39" t="s">
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="39" t="s">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="39" t="s">
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="40"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="39" t="s">
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="42"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="2:27" s="19" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
@@ -3907,15 +3857,15 @@
       <c r="Z5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -3942,10 +3892,10 @@
       <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="17"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -3972,10 +3922,10 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="2:27" s="19" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="18"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -4008,71 +3958,71 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="39" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="39" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="39" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="39" t="s">
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="39" t="s">
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="40"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="39" t="s">
+      <c r="T12" s="44"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="40"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="39" t="s">
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="2:27" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="25" t="s">
         <v>18</v>
       </c>
@@ -4142,15 +4092,15 @@
       <c r="Z13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="66" t="s">
+      <c r="AA13" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4177,10 +4127,10 @@
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="2:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="17"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -4207,10 +4157,10 @@
       <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="2:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="18"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -4237,108 +4187,108 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
     </row>
     <row r="21" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
     </row>
     <row r="22" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -4351,19 +4301,19 @@
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
     </row>
     <row r="23" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -4376,19 +4326,19 @@
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
     </row>
     <row r="24" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -4401,144 +4351,144 @@
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
     </row>
     <row r="26" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
     </row>
     <row r="27" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
     </row>
     <row r="28" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
     </row>
     <row r="29" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
     </row>
     <row r="30" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -4554,16 +4504,16 @@
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
     </row>
     <row r="31" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -4579,16 +4529,16 @@
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
     </row>
     <row r="32" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -4604,141 +4554,141 @@
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
     </row>
     <row r="33" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
     </row>
     <row r="34" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
     </row>
     <row r="35" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
     </row>
     <row r="36" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
     </row>
     <row r="37" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
     </row>
     <row r="38" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
@@ -4762,8 +4712,8 @@
       <c r="X38" s="23"/>
     </row>
     <row r="39" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -4787,8 +4737,8 @@
       <c r="X39" s="23"/>
     </row>
     <row r="40" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -4812,49 +4762,66 @@
       <c r="X40" s="23"/>
     </row>
     <row r="41" spans="2:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -4866,40 +4833,23 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
